--- a/13c.xlsx
+++ b/13c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B62E1A6-1CD0-44A7-B181-64C70116E329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3EC4FF-2D1F-4478-9656-A275B4D9B026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7853" yWindow="3413" windowWidth="28229" windowHeight="15097" xr2:uid="{8475C2FB-E1FE-4B10-8D62-3008A887F9B7}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="40">
   <si>
     <t>サンプル</t>
     <phoneticPr fontId="2"/>
@@ -365,38 +365,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>参考：独立性の検定</t>
-    <rPh sb="0" eb="2">
-      <t>サンコウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ドクリツセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケンテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※p&lt;0.001なので0.1%有意（出身地とお雑煮の種類には関係がある）</t>
-    <rPh sb="15" eb="17">
-      <t>ユウイ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>シュッシンチ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ゾウニ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カンケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1121,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25DD619-C240-4D58-8FB2-1E1E4B279F0E}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
@@ -1541,9 +1509,7 @@
         <f t="shared" si="5"/>
         <v>1.0910465050630098</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A20" s="10" t="s">
@@ -1572,10 +1538,6 @@
       <c r="I20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K20">
-        <f>_xlfn.CHISQ.TEST(B4:D9,H4:J9)</f>
-        <v>1.1377926389306629E-24</v>
-      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A21" s="8" t="s">
@@ -1604,19 +1566,11 @@
         <f>SQRT(E21/(E10*(H20-1)))</f>
         <v>0.33898649151583882</v>
       </c>
-      <c r="K21">
-        <f>_xlfn.CHISQ.DIST.RT(E21,(COUNTA(B3:D3)-1)*(COUNTA(A4:A9)-1))</f>
-        <v>1.13779263893068E-24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="K22" t="s">
-        <v>40</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2308,7 +2262,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.7">

--- a/13c.xlsx
+++ b/13c.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3EC4FF-2D1F-4478-9656-A275B4D9B026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C4CB47-3E8F-49B9-A135-FEFF0A8AB31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7853" yWindow="3413" windowWidth="28229" windowHeight="15097" xr2:uid="{8475C2FB-E1FE-4B10-8D62-3008A887F9B7}"/>
+    <workbookView xWindow="4500" yWindow="1500" windowWidth="28800" windowHeight="16200" xr2:uid="{8475C2FB-E1FE-4B10-8D62-3008A887F9B7}"/>
   </bookViews>
   <sheets>
-    <sheet name="順位相関を求める（同順位がある場合）" sheetId="4" r:id="rId1"/>
-    <sheet name="連関係数" sheetId="10" r:id="rId2"/>
-    <sheet name="連関係数 (スピルを使わない例)" sheetId="11" r:id="rId3"/>
-    <sheet name="順位相関を求める（参考－定義通りに計算した例を含む）" sheetId="6" r:id="rId4"/>
+    <sheet name="順位相関（同順位がある場合）" sheetId="4" r:id="rId1"/>
+    <sheet name="順位相関（同順位がある場合、完成例）" sheetId="13" r:id="rId2"/>
+    <sheet name="連関係数" sheetId="14" r:id="rId3"/>
+    <sheet name="連関係数 (完成例)" sheetId="12" r:id="rId4"/>
+    <sheet name="連関係数 (スピルを使わない例)" sheetId="15" r:id="rId5"/>
+    <sheet name="順位相関を求める（参考－定義通りに計算した例を含む）" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="41">
   <si>
     <t>サンプル</t>
     <phoneticPr fontId="2"/>
@@ -378,6 +380,13 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ヨソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北海道</t>
+    <rPh sb="0" eb="3">
+      <t>ホッカイドウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -847,7 +856,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -894,22 +903,8 @@
       <c r="C4">
         <v>70</v>
       </c>
-      <c r="D4" cm="1">
-        <f t="array" ref="D4:D13">_xlfn.RANK.AVG(B4:B13,B4:B13,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E4" cm="1">
-        <f t="array" ref="E4:E13">_xlfn.RANK.AVG(C4:C13,C4:C13,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G4" s="6">
-        <f>CORREL(B4:B13,C4:C13)</f>
-        <v>0.44533663158440562</v>
-      </c>
-      <c r="H4" s="6">
-        <f>CORREL(D4:D13,E4:E13)</f>
-        <v>0.73780487804878048</v>
-      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A5">
@@ -921,12 +916,6 @@
       <c r="C5">
         <v>60</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A6">
@@ -938,12 +927,6 @@
       <c r="C6">
         <v>76</v>
       </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>1.5</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A7">
@@ -955,12 +938,6 @@
       <c r="C7">
         <v>58</v>
       </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>9</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A8">
@@ -972,12 +949,6 @@
       <c r="C8">
         <v>75</v>
       </c>
-      <c r="D8">
-        <v>5.5</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A9">
@@ -989,12 +960,6 @@
       <c r="C9">
         <v>63</v>
       </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A10">
@@ -1006,12 +971,6 @@
       <c r="C10">
         <v>76</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>1.5</v>
-      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A11">
@@ -1023,12 +982,6 @@
       <c r="C11">
         <v>51</v>
       </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A12">
@@ -1040,12 +993,6 @@
       <c r="C12">
         <v>65</v>
       </c>
-      <c r="D12">
-        <v>5.5</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A13" s="7">
@@ -1057,25 +1004,15 @@
       <c r="C13" s="7">
         <v>59</v>
       </c>
-      <c r="D13" s="7">
-        <v>7</v>
-      </c>
-      <c r="E13" s="7">
-        <v>8</v>
-      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="6">
-        <f>_xlfn.SKEW.P(B4:B13)</f>
-        <v>0.79865329868756374</v>
-      </c>
-      <c r="C14" s="6">
-        <f>_xlfn.SKEW.P(C4:C13)</f>
-        <v>-4.6365945369299742E-2</v>
-      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G4:K13">
@@ -1088,11 +1025,253 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25DD619-C240-4D58-8FB2-1E1E4B279F0E}">
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9EB7D4-1008-4710-9211-1EBBE7E68BB5}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>96</v>
+      </c>
+      <c r="C4">
+        <v>70</v>
+      </c>
+      <c r="D4" cm="1">
+        <f t="array" ref="D4:D13">_xlfn.RANK.AVG(B4:B13,B4:B13,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" cm="1">
+        <f t="array" ref="E4:E13">_xlfn.RANK.AVG(C4:C13,C4:C13,0)</f>
+        <v>4</v>
+      </c>
+      <c r="G4" s="6">
+        <f>CORREL(B4:B13,C4:C13)</f>
+        <v>0.44533663158440562</v>
+      </c>
+      <c r="H4" s="6">
+        <f>CORREL(D4:D13,E4:E13)</f>
+        <v>0.73780487804878048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>76</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>58</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>75</v>
+      </c>
+      <c r="D8">
+        <v>5.5</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>77</v>
+      </c>
+      <c r="C10">
+        <v>76</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>51</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>65</v>
+      </c>
+      <c r="D12">
+        <v>5.5</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>59</v>
+      </c>
+      <c r="D13" s="7">
+        <v>7</v>
+      </c>
+      <c r="E13" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="6">
+        <f>_xlfn.SKEW.P(B4:B13)</f>
+        <v>0.79865329868756374</v>
+      </c>
+      <c r="C14" s="6">
+        <f>_xlfn.SKEW.P(C4:C13)</f>
+        <v>-4.6365945369299742E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10881C71-22F9-4990-9092-5A4CB4590615}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -1150,422 +1329,340 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A4" s="10" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1">
         <f>SUM(B4:D4)</f>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" cm="1">
-        <f t="array" ref="H4:J9">E4:E9*B10:D10/E10</f>
-        <v>32.39</v>
-      </c>
-      <c r="I4">
-        <v>42.776666666666664</v>
-      </c>
-      <c r="J4">
-        <v>6.833333333333333</v>
+        <v>40</v>
       </c>
       <c r="K4" s="1">
         <f>SUM(H4:J4)</f>
-        <v>81.999999999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A5" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E10" si="0">SUM(B5:D5)</f>
-        <v>117</v>
+        <f>SUM(B5:D5)</f>
+        <v>82</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5">
-        <v>46.215000000000003</v>
-      </c>
-      <c r="I5">
-        <v>61.034999999999997</v>
-      </c>
-      <c r="J5">
-        <v>9.75</v>
+        <v>24</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5:K10" si="1">SUM(H5:J5)</f>
-        <v>117</v>
+        <f>SUM(H5:J5)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>84</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:E11" si="0">SUM(B6:D6)</f>
+        <v>117</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" ref="K6:K11" si="1">SUM(H6:J6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>94</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>21</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H6">
-        <v>47.005000000000003</v>
-      </c>
-      <c r="I6">
-        <v>62.078333333333333</v>
-      </c>
-      <c r="J6">
-        <v>9.9166666666666661</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="K7" s="1">
         <f t="shared" si="1"/>
-        <v>119.00000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A7" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>28</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>44</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>17</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H7">
-        <v>35.155000000000001</v>
-      </c>
-      <c r="I7">
-        <v>46.428333333333335</v>
-      </c>
-      <c r="J7">
-        <v>7.416666666666667</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="K8" s="1">
         <f t="shared" si="1"/>
-        <v>89.000000000000014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A8" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>45</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>48</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H8">
-        <v>39.895000000000003</v>
-      </c>
-      <c r="I8">
-        <v>52.688333333333333</v>
-      </c>
-      <c r="J8">
-        <v>8.4166666666666661</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="K9" s="1">
         <f t="shared" si="1"/>
-        <v>101.00000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A9" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>30</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>51</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>11</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H9">
-        <v>36.340000000000003</v>
-      </c>
-      <c r="I9">
-        <v>47.993333333333332</v>
-      </c>
-      <c r="J9">
-        <v>7.666666666666667</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="K10" s="1">
         <f t="shared" si="1"/>
-        <v>92.000000000000014</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A10" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="11">
-        <f>SUM(B4:B9)</f>
-        <v>237</v>
-      </c>
-      <c r="C10" s="11">
-        <f t="shared" ref="C10:D10" si="2">SUM(C4:C9)</f>
-        <v>313</v>
-      </c>
-      <c r="D10" s="11">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="B11" s="11">
+        <f>SUM(B4:B10)</f>
+        <v>269</v>
+      </c>
+      <c r="C11" s="11">
+        <f>SUM(C4:C10)</f>
+        <v>355</v>
+      </c>
+      <c r="D11" s="11">
+        <f>SUM(D4:D10)</f>
+        <v>56</v>
+      </c>
+      <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="G10" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="11">
-        <f>SUM(H4:H9)</f>
-        <v>237.00000000000003</v>
-      </c>
-      <c r="I10" s="11">
-        <f t="shared" ref="I10" si="3">SUM(I4:I9)</f>
-        <v>313</v>
-      </c>
-      <c r="J10" s="11">
-        <f t="shared" ref="J10" si="4">SUM(J4:J9)</f>
-        <v>49.999999999999993</v>
-      </c>
-      <c r="K10" s="11">
+      <c r="H11" s="11">
+        <f>SUM(H4:H10)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <f>SUM(I4:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <f>SUM(J4:J10)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
         <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A14" s="9" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" cm="1">
-        <f t="array" ref="B15:D20">(B4:D9-H4:J9)^2/H4:J9</f>
-        <v>10.441250385921581</v>
-      </c>
-      <c r="C15">
-        <v>11.54546585625601</v>
-      </c>
-      <c r="D15">
-        <v>2.1504065040650406</v>
-      </c>
-      <c r="E15" s="1">
-        <f>SUM(B15:D15)</f>
-        <v>24.137122746242632</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>8.8422855133614657</v>
-      </c>
-      <c r="C16">
-        <v>8.6407999508478781</v>
-      </c>
-      <c r="D16">
-        <v>0.77564102564102566</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" ref="E16:E21" si="5">SUM(B16:D16)</f>
-        <v>18.258726489850371</v>
+        <f>SUM(B16:D16)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>46.985002127433241</v>
-      </c>
-      <c r="C17">
-        <v>27.182261166447411</v>
-      </c>
-      <c r="D17">
-        <v>3.5301120448179266</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="5"/>
-        <v>77.697375338698578</v>
+        <f>SUM(B17:D17)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <v>1.4562373773289721</v>
-      </c>
-      <c r="C18">
-        <v>0.12700871115578383</v>
-      </c>
-      <c r="D18">
-        <v>12.382958801498123</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="5"/>
-        <v>13.96620488998288</v>
+        <f t="shared" ref="E18:E23" si="2">SUM(B18:D18)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A19" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19">
-        <v>0.65324038100012449</v>
-      </c>
-      <c r="C19">
-        <v>0.41717906135661476</v>
-      </c>
-      <c r="D19">
-        <v>2.0627062706270568E-2</v>
+        <v>18</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="5"/>
-        <v>1.0910465050630098</v>
-      </c>
-      <c r="K19" s="1"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B20">
-        <v>1.1060979636763908</v>
-      </c>
-      <c r="C20">
-        <v>0.18836042042876339</v>
-      </c>
-      <c r="D20">
-        <v>1.4492753623188401</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7437337464239944</v>
-      </c>
-      <c r="G20" s="13" t="s">
+      <c r="E22" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="6">
-        <f>MIN(COUNTA(B3:D3),COUNTA(A4:A9))</f>
-        <v>3</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="H22" s="6"/>
+      <c r="I22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A21" s="8" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="11">
-        <f>SUM(B15:B20)</f>
-        <v>69.484113748721782</v>
-      </c>
-      <c r="C21" s="11">
-        <f t="shared" ref="C21" si="6">SUM(C15:C20)</f>
-        <v>48.101075166492457</v>
-      </c>
-      <c r="D21" s="11">
-        <f t="shared" ref="D21" si="7">SUM(D15:D20)</f>
-        <v>20.309020801047225</v>
-      </c>
-      <c r="E21" s="11">
-        <f t="shared" si="5"/>
-        <v>137.89420971626146</v>
-      </c>
-      <c r="G21" s="12" t="s">
+      <c r="B23" s="11">
+        <f>SUM(B16:B22)</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
+        <f>SUM(C16:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="11">
+        <f>SUM(D16:D22)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="7">
-        <f>SQRT(E21/(E10*(H20-1)))</f>
-        <v>0.33898649151583882</v>
-      </c>
+      <c r="H23" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1574,18 +1671,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EB9845-5B40-4D49-B549-053C4099EB81}">
-  <dimension ref="A1:K21"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D3C3F3-1DF8-440C-9E86-A7E79B06A75E}">
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.7">
@@ -1638,463 +1734,1062 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A4" s="10" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1">
         <f>SUM(B4:D4)</f>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:J9" si="0">$E4*B$10/$E$10</f>
-        <v>32.39</v>
+        <v>40</v>
+      </c>
+      <c r="H4" cm="1">
+        <f t="array" ref="H4:J10">E4:E10*B11:D11/E11</f>
+        <v>31.647058823529413</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>42.776666666666664</v>
+        <v>41.764705882352942</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
-        <v>6.833333333333333</v>
+        <v>6.5882352941176467</v>
       </c>
       <c r="K4" s="1">
         <f>SUM(H4:J4)</f>
-        <v>81.999999999999986</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A5" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E10" si="1">SUM(B5:D5)</f>
-        <v>117</v>
+        <f>SUM(B5:D5)</f>
+        <v>82</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>46.215000000000003</v>
+        <v>32.438235294117646</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
-        <v>61.034999999999997</v>
+        <v>42.808823529411768</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
-        <v>9.75</v>
+        <v>6.7529411764705882</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5:K10" si="2">SUM(H5:J5)</f>
-        <v>117</v>
+        <f>SUM(H5:J5)</f>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>84</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:E11" si="0">SUM(B6:D6)</f>
+        <v>117</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>46.283823529411762</v>
+      </c>
+      <c r="I6">
+        <v>61.080882352941174</v>
+      </c>
+      <c r="J6">
+        <v>9.6352941176470583</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" ref="K6:K10" si="1">SUM(H6:J6)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>94</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>21</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>47.075000000000003</v>
+      </c>
+      <c r="I7">
+        <v>62.125</v>
+      </c>
+      <c r="J7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>47.005000000000003</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>62.078333333333333</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>9.9166666666666661</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="2"/>
-        <v>119.00000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A7" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>44</v>
-      </c>
-      <c r="D7">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="H8">
+        <v>35.207352941176474</v>
+      </c>
+      <c r="I8">
+        <v>46.463235294117645</v>
+      </c>
+      <c r="J8">
+        <v>7.3294117647058821</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>35.155000000000001</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>46.428333333333335</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>7.416666666666667</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="2"/>
-        <v>89.000000000000014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A8" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
-        <v>45</v>
-      </c>
-      <c r="C8">
-        <v>48</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="H9">
+        <v>39.954411764705881</v>
+      </c>
+      <c r="I9">
+        <v>52.727941176470587</v>
+      </c>
+      <c r="J9">
+        <v>8.3176470588235301</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>39.895000000000003</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>52.688333333333333</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>8.4166666666666661</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="2"/>
-        <v>101.00000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A9" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
-      <c r="C9">
-        <v>51</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="H10">
+        <v>36.39411764705882</v>
+      </c>
+      <c r="I10">
+        <v>48.029411764705884</v>
+      </c>
+      <c r="J10">
+        <v>7.5764705882352938</v>
+      </c>
+      <c r="K10" s="1">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="11">
+        <f>SUM(B4:B10)</f>
+        <v>269</v>
+      </c>
+      <c r="C11" s="11">
+        <f>SUM(C4:C10)</f>
+        <v>355</v>
+      </c>
+      <c r="D11" s="11">
+        <f>SUM(D4:D10)</f>
+        <v>56</v>
+      </c>
+      <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>36.340000000000003</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>47.993333333333332</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>7.666666666666667</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="2"/>
-        <v>92.000000000000014</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A10" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="11">
-        <f>SUM(B4:B9)</f>
-        <v>237</v>
-      </c>
-      <c r="C10" s="11">
-        <f t="shared" ref="C10:D10" si="3">SUM(C4:C9)</f>
-        <v>313</v>
-      </c>
-      <c r="D10" s="11">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="E10" s="11">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="H11" s="11">
+        <f>SUM(H4:H10)</f>
+        <v>269</v>
+      </c>
+      <c r="I11" s="11">
+        <f>SUM(I4:I10)</f>
+        <v>355</v>
+      </c>
+      <c r="J11" s="11">
+        <f>SUM(J4:J10)</f>
+        <v>56.000000000000007</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" ref="K6:K11" si="2">SUM(H11:J11)</f>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="H10" s="11">
-        <f>SUM(H4:H9)</f>
-        <v>237.00000000000003</v>
-      </c>
-      <c r="I10" s="11">
-        <f t="shared" ref="I10:J10" si="4">SUM(I4:I9)</f>
-        <v>313</v>
-      </c>
-      <c r="J10" s="11">
-        <f t="shared" si="4"/>
-        <v>49.999999999999993</v>
-      </c>
-      <c r="K10" s="11">
-        <f t="shared" si="2"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
-        <f>(B4-H4)^2/H4</f>
-        <v>10.441250385921581</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ref="C15:D20" si="5">(C4-I4)^2/I4</f>
-        <v>11.54546585625601</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="5"/>
-        <v>2.1504065040650406</v>
-      </c>
-      <c r="E15" s="1">
-        <f>SUM(B15:D15)</f>
-        <v>24.137122746242632</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" cm="1">
+        <f t="array" ref="B16:D22">(B4:D10-H4:J10)^2/H4:J10</f>
+        <v>3.9361469494860859E-3</v>
+      </c>
+      <c r="C16">
+        <v>1.3256006628003219E-3</v>
+      </c>
+      <c r="D16">
+        <v>5.252100840336129E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <f>SUM(B16:D16)</f>
+        <v>5.7782756015647696E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>10.480487538201427</v>
+      </c>
+      <c r="C17">
+        <v>11.503430193788263</v>
+      </c>
+      <c r="D17">
+        <v>2.0856937897110064</v>
+      </c>
+      <c r="E17" s="1">
+        <f>SUM(B17:D17)</f>
+        <v>24.069611521700697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
-        <f t="shared" ref="B16:B20" si="6">(B5-H5)^2/H5</f>
-        <v>8.8422855133614657</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="5"/>
-        <v>8.6407999508478781</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="5"/>
-        <v>0.77564102564102566</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" ref="E16:E21" si="7">SUM(B16:D16)</f>
-        <v>18.258726489850371</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A17" s="10" t="s">
+      <c r="B18">
+        <v>8.8893584323444355</v>
+      </c>
+      <c r="C18">
+        <v>8.5998422662672898</v>
+      </c>
+      <c r="D18">
+        <v>0.72076420311714406</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ref="E18:E23" si="3">SUM(B18:D18)</f>
+        <v>18.209964901728871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
-        <f t="shared" si="6"/>
-        <v>46.985002127433241</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="5"/>
-        <v>27.182261166447411</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="5"/>
-        <v>3.5301120448179266</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="7"/>
-        <v>77.697375338698578</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A18" s="10" t="s">
+      <c r="B19">
+        <v>46.775477960700997</v>
+      </c>
+      <c r="C19">
+        <v>27.223591549295776</v>
+      </c>
+      <c r="D19">
+        <v>3.4326530612244905</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="3"/>
+        <v>77.431722571221258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B18">
-        <f t="shared" si="6"/>
-        <v>1.4562373773289721</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="5"/>
-        <v>0.12700871115578383</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="5"/>
-        <v>12.382958801498123</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="7"/>
-        <v>13.96620488998288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A19" s="10" t="s">
+      <c r="B20">
+        <v>1.4754286272380399</v>
+      </c>
+      <c r="C20">
+        <v>0.1305877232994794</v>
+      </c>
+      <c r="D20">
+        <v>12.75958832971391</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="3"/>
+        <v>14.36560468025143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B19">
-        <f t="shared" si="6"/>
-        <v>0.65324038100012449</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="5"/>
-        <v>0.41717906135661476</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="5"/>
-        <v>2.0627062706270568E-2</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="7"/>
-        <v>1.0910465050630098</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A20" s="10" t="s">
+      <c r="B21">
+        <v>0.63717520833649111</v>
+      </c>
+      <c r="C21">
+        <v>0.42393894526155163</v>
+      </c>
+      <c r="D21">
+        <v>1.2130792911223945E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0732449465092666</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B20">
-        <f t="shared" si="6"/>
-        <v>1.1060979636763908</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="5"/>
-        <v>0.18836042042876339</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="5"/>
-        <v>1.4492753623188401</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="7"/>
-        <v>2.7437337464239944</v>
-      </c>
-      <c r="G20" s="13" t="s">
+      <c r="B22">
+        <v>1.1233886992650615</v>
+      </c>
+      <c r="C22">
+        <v>0.18372897229926854</v>
+      </c>
+      <c r="D22">
+        <v>1.5469674826452322</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="3"/>
+        <v>2.854085154209562</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="6">
-        <f>MIN(COUNTA(B3:D3),COUNTA(A4:A9))</f>
+      <c r="H22" s="6">
+        <f>MIN(COUNTA(B3:D3),COUNTA(A5:A10))</f>
         <v>3</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A21" s="8" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="11">
-        <f>SUM(B15:B20)</f>
-        <v>69.484113748721782</v>
-      </c>
-      <c r="C21" s="11">
-        <f t="shared" ref="C21:D21" si="8">SUM(C15:C20)</f>
-        <v>48.101075166492457</v>
-      </c>
-      <c r="D21" s="11">
-        <f t="shared" si="8"/>
-        <v>20.309020801047225</v>
-      </c>
-      <c r="E21" s="11">
-        <f t="shared" si="7"/>
-        <v>137.89420971626146</v>
-      </c>
-      <c r="G21" s="12" t="s">
+      <c r="B23" s="11">
+        <f>SUM(B16:B22)</f>
+        <v>69.385252613035945</v>
+      </c>
+      <c r="C23" s="11">
+        <f>SUM(C16:C22)</f>
+        <v>48.06644525087443</v>
+      </c>
+      <c r="D23" s="11">
+        <f>SUM(D16:D22)</f>
+        <v>20.610318667726371</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="3"/>
+        <v>138.06201653163674</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="7">
-        <f>SQRT(E21/(E10*(H20-1)))</f>
-        <v>0.33898649151583882</v>
+      <c r="H23" s="7">
+        <f>SQRT(E23/(E11*(H22-1)))</f>
+        <v>0.31861605205357041</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D0CF94-F0B8-448B-AC5C-F5C9D7BD7A84}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="11" max="11" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <f>SUM(B4:D4)</f>
+        <v>80</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <f>$E4*B$11/$E$11</f>
+        <v>31.647058823529413</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:J4" si="0">$E4*C$11/$E$11</f>
+        <v>41.764705882352942</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>6.5882352941176467</v>
+      </c>
+      <c r="K4" s="1">
+        <f>SUM(H4:J4)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <f>SUM(B5:D5)</f>
+        <v>82</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H10" si="1">$E5*B$11/$E$11</f>
+        <v>32.438235294117646</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I10" si="2">$E5*C$11/$E$11</f>
+        <v>42.808823529411768</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J10" si="3">$E5*D$11/$E$11</f>
+        <v>6.7529411764705882</v>
+      </c>
+      <c r="K5" s="1">
+        <f>SUM(H5:J5)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>84</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:E11" si="4">SUM(B6:D6)</f>
+        <v>117</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>46.283823529411762</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>61.080882352941174</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>9.6352941176470583</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" ref="K6:K11" si="5">SUM(H6:J6)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>94</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>47.075000000000003</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>62.125</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="5"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>35.207352941176474</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>46.463235294117645</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>7.3294117647058821</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>39.954411764705881</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>52.727941176470587</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>8.3176470588235301</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>36.39411764705882</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>48.029411764705884</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>7.5764705882352938</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="11">
+        <f>SUM(B4:B10)</f>
+        <v>269</v>
+      </c>
+      <c r="C11" s="11">
+        <f>SUM(C4:C10)</f>
+        <v>355</v>
+      </c>
+      <c r="D11" s="11">
+        <f>SUM(D4:D10)</f>
+        <v>56</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="4"/>
+        <v>680</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="11">
+        <f>SUM(H4:H10)</f>
+        <v>269</v>
+      </c>
+      <c r="I11" s="11">
+        <f>SUM(I4:I10)</f>
+        <v>355</v>
+      </c>
+      <c r="J11" s="11">
+        <f>SUM(J4:J10)</f>
+        <v>56.000000000000007</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="5"/>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <f>(B4-H4)^2/H4</f>
+        <v>3.9361469494860859E-3</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:D16" si="6">(C4-I4)^2/I4</f>
+        <v>1.3256006628003219E-3</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="6"/>
+        <v>5.252100840336129E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <f>SUM(B16:D16)</f>
+        <v>5.7782756015647696E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:B22" si="7">(B5-H5)^2/H5</f>
+        <v>10.480487538201427</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C22" si="8">(C5-I5)^2/I5</f>
+        <v>11.503430193788263</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D22" si="9">(D5-J5)^2/J5</f>
+        <v>2.0856937897110064</v>
+      </c>
+      <c r="E17" s="1">
+        <f>SUM(B17:D17)</f>
+        <v>24.069611521700697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="7"/>
+        <v>8.8893584323444355</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="8"/>
+        <v>8.5998422662672898</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="9"/>
+        <v>0.72076420311714406</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ref="E18:E23" si="10">SUM(B18:D18)</f>
+        <v>18.209964901728871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="7"/>
+        <v>46.775477960700997</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="8"/>
+        <v>27.223591549295776</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="9"/>
+        <v>3.4326530612244905</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="10"/>
+        <v>77.431722571221258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="7"/>
+        <v>1.4754286272380399</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="8"/>
+        <v>0.1305877232994794</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="9"/>
+        <v>12.75958832971391</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="10"/>
+        <v>14.36560468025143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="7"/>
+        <v>0.63717520833649111</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="8"/>
+        <v>0.42393894526155163</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="9"/>
+        <v>1.2130792911223945E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="10"/>
+        <v>1.0732449465092666</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="7"/>
+        <v>1.1233886992650615</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="8"/>
+        <v>0.18372897229926854</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="9"/>
+        <v>1.5469674826452322</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="10"/>
+        <v>2.854085154209562</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="6">
+        <f>MIN(COUNTA(B3:D3),COUNTA(A5:A10))</f>
+        <v>3</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="11">
+        <f>SUM(B16:B22)</f>
+        <v>69.385252613035945</v>
+      </c>
+      <c r="C23" s="11">
+        <f>SUM(C16:C22)</f>
+        <v>48.06644525087443</v>
+      </c>
+      <c r="D23" s="11">
+        <f>SUM(D16:D22)</f>
+        <v>20.610318667726371</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="10"/>
+        <v>138.06201653163674</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="7">
+        <f>SQRT(E23/(E11*(H22-1)))</f>
+        <v>0.31861605205357041</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3245C871-23E7-4059-8972-10B4D997CB60}">
   <dimension ref="A1:F17"/>
   <sheetViews>
